--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/56.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/56.xlsx
@@ -479,13 +479,13 @@
         <v>-0.05166799948615308</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.936828029082965</v>
+        <v>-1.936431626026283</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3892716777417286</v>
+        <v>0.391550812811637</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.2294003400113781</v>
+        <v>-0.2308049062748322</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.03085888292422945</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.950725496836279</v>
+        <v>-1.949746534591325</v>
       </c>
       <c r="F3" t="n">
-        <v>0.3075922073920232</v>
+        <v>0.3098567419810226</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.2091100516920199</v>
+        <v>-0.2106182813699286</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.0232213644195367</v>
       </c>
       <c r="E4" t="n">
-        <v>-2.023619127798942</v>
+        <v>-2.021848089464669</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2782715216303947</v>
+        <v>0.2811375960328485</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.2263094182029244</v>
+        <v>-0.2277577859091058</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.03201696806068597</v>
       </c>
       <c r="E5" t="n">
-        <v>-2.084410420136062</v>
+        <v>-2.083164999114516</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2557473597319462</v>
+        <v>0.257973933070582</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.2324124192229227</v>
+        <v>-0.2339308692374678</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.05079039143432564</v>
       </c>
       <c r="E6" t="n">
-        <v>-2.050218283919116</v>
+        <v>-2.048637051836662</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2409570725710411</v>
+        <v>0.2432829291798586</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.2205393081476532</v>
+        <v>-0.2217190270051074</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.06791099259610429</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.912672263442926</v>
+        <v>-1.91142538237329</v>
       </c>
       <c r="F7" t="n">
-        <v>0.2608692084348539</v>
+        <v>0.2624256196997626</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.2073404734058386</v>
+        <v>-0.2088633035646563</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.07057379984370604</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.641361747045999</v>
+        <v>-1.639895858762727</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2611495376683084</v>
+        <v>0.2625847649416717</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.1854514324269353</v>
+        <v>-0.1866063304668441</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.04742463254743459</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.265695753399463</v>
+        <v>-1.263870693285828</v>
       </c>
       <c r="F9" t="n">
-        <v>0.2448670813584946</v>
+        <v>0.2459898583404034</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.1292439610712232</v>
+        <v>-0.1299243434815866</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>0.009771738314845334</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.7812342762588662</v>
+        <v>-0.779111366334685</v>
       </c>
       <c r="F10" t="n">
-        <v>0.269327267025488</v>
+        <v>0.2708267364148512</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.02974022362770442</v>
+        <v>-0.02962487982852263</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>0.1066352689752002</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.2486350135610093</v>
+        <v>-0.2463923796933735</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1583125104332451</v>
+        <v>0.1605536842527899</v>
       </c>
       <c r="G11" t="n">
-        <v>0.05776483860472663</v>
+        <v>0.05818095231063561</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>0.2453869643273295</v>
       </c>
       <c r="E12" t="n">
-        <v>0.4226600574846286</v>
+        <v>0.4245070183196282</v>
       </c>
       <c r="F12" t="n">
-        <v>0.03690221143373223</v>
+        <v>0.0386411287100045</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1552551697308823</v>
+        <v>0.1560961574312457</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.4224543266862179</v>
       </c>
       <c r="E13" t="n">
-        <v>1.103243954484628</v>
+        <v>1.105981544655082</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.1269852666745874</v>
+        <v>-0.1249996012709516</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2888904513955737</v>
+        <v>0.2896146352486644</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.6318616699803934</v>
       </c>
       <c r="E14" t="n">
-        <v>1.821838743483344</v>
+        <v>1.824199641246343</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.3555382747292533</v>
+        <v>-0.3525232754215268</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4337870839854439</v>
+        <v>0.4351536889985344</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.8657693479953472</v>
       </c>
       <c r="E15" t="n">
-        <v>2.528706426215881</v>
+        <v>2.530302258779245</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.6267903892025442</v>
+        <v>-0.6233548960446359</v>
       </c>
       <c r="G15" t="n">
-        <v>0.6223654353591205</v>
+        <v>0.6237057595065747</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>1.114533626664683</v>
       </c>
       <c r="E16" t="n">
-        <v>3.204066271146609</v>
+        <v>3.204295498696882</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.9424892876592775</v>
+        <v>-0.9398159396048237</v>
       </c>
       <c r="G16" t="n">
-        <v>0.7786854842122604</v>
+        <v>0.779984927013169</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>1.368318835918805</v>
       </c>
       <c r="E17" t="n">
-        <v>3.864222635306704</v>
+        <v>3.863374347365887</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.206140391771298</v>
+        <v>-1.201985094904571</v>
       </c>
       <c r="G17" t="n">
-        <v>0.977050537939298</v>
+        <v>0.9782959589608431</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>1.616803225453513</v>
       </c>
       <c r="E18" t="n">
-        <v>4.403824288648559</v>
+        <v>4.402787654504015</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.563717849619565</v>
+        <v>-1.559950925545021</v>
       </c>
       <c r="G18" t="n">
-        <v>1.176151455904153</v>
+        <v>1.177586683177517</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>1.84961607451768</v>
       </c>
       <c r="E19" t="n">
-        <v>4.933046460112145</v>
+        <v>4.931482748606782</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.850527506525534</v>
+        <v>-1.845978726698308</v>
       </c>
       <c r="G19" t="n">
-        <v>1.376500714986736</v>
+        <v>1.377416165139736</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>2.055853880609002</v>
       </c>
       <c r="E20" t="n">
-        <v>5.296233422725684</v>
+        <v>5.294320759726594</v>
       </c>
       <c r="F20" t="n">
-        <v>-2.170744523799584</v>
+        <v>-2.166281156785676</v>
       </c>
       <c r="G20" t="n">
-        <v>1.585086105350135</v>
+        <v>1.586284804832771</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>2.225132590245062</v>
       </c>
       <c r="E21" t="n">
-        <v>5.605471608380146</v>
+        <v>5.603661148747419</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.489316796899226</v>
+        <v>-2.484538059497682</v>
       </c>
       <c r="G21" t="n">
-        <v>1.766488320356995</v>
+        <v>1.76768555979154</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>2.35336911472973</v>
       </c>
       <c r="E22" t="n">
-        <v>5.84626565962899</v>
+        <v>5.843282781379264</v>
       </c>
       <c r="F22" t="n">
-        <v>-2.799859535522915</v>
+        <v>-2.794955233985553</v>
       </c>
       <c r="G22" t="n">
-        <v>1.893162092724234</v>
+        <v>1.894702443460142</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>2.440470836788414</v>
       </c>
       <c r="E23" t="n">
-        <v>6.000084646102404</v>
+        <v>5.997182070497677</v>
       </c>
       <c r="F23" t="n">
-        <v>-3.049879630658212</v>
+        <v>-3.045048331525395</v>
       </c>
       <c r="G23" t="n">
-        <v>2.012829094303202</v>
+        <v>2.01440156609711</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>2.490568434607737</v>
       </c>
       <c r="E24" t="n">
-        <v>6.089632315614016</v>
+        <v>6.08685822424129</v>
       </c>
       <c r="F24" t="n">
-        <v>-3.282486462237285</v>
+        <v>-3.278558202848695</v>
       </c>
       <c r="G24" t="n">
-        <v>2.115323010236902</v>
+        <v>2.117105728955901</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>2.507467140091258</v>
       </c>
       <c r="E25" t="n">
-        <v>6.104939459799103</v>
+        <v>6.102209169869104</v>
       </c>
       <c r="F25" t="n">
-        <v>-3.457843348123738</v>
+        <v>-3.454232649194921</v>
       </c>
       <c r="G25" t="n">
-        <v>2.168611845458887</v>
+        <v>2.170993183895159</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>2.493615095799459</v>
       </c>
       <c r="E26" t="n">
-        <v>6.05231494645848</v>
+        <v>6.049126201427936</v>
       </c>
       <c r="F26" t="n">
-        <v>-3.624985273426693</v>
+        <v>-3.621143886899513</v>
       </c>
       <c r="G26" t="n">
-        <v>2.194380234215335</v>
+        <v>2.19737771294597</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>2.450971935100925</v>
       </c>
       <c r="E27" t="n">
-        <v>5.947690820360145</v>
+        <v>5.945202898413236</v>
       </c>
       <c r="F27" t="n">
-        <v>-3.71507024063576</v>
+        <v>-3.711269005431079</v>
       </c>
       <c r="G27" t="n">
-        <v>2.198656715073606</v>
+        <v>2.201254140627333</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>2.381266748178358</v>
       </c>
       <c r="E28" t="n">
-        <v>5.873967152057801</v>
+        <v>5.872137711799892</v>
       </c>
       <c r="F28" t="n">
-        <v>-3.780816936193424</v>
+        <v>-3.77728288978938</v>
       </c>
       <c r="G28" t="n">
-        <v>2.205059025952241</v>
+        <v>2.207859398190604</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>2.288727365318578</v>
       </c>
       <c r="E29" t="n">
-        <v>5.675641519629218</v>
+        <v>5.674482241445037</v>
       </c>
       <c r="F29" t="n">
-        <v>-3.819810440557323</v>
+        <v>-3.816861873437733</v>
       </c>
       <c r="G29" t="n">
-        <v>2.205064866144605</v>
+        <v>2.207944080979876</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>2.177479723497378</v>
       </c>
       <c r="E30" t="n">
-        <v>5.464188594815275</v>
+        <v>5.463141740334093</v>
       </c>
       <c r="F30" t="n">
-        <v>-3.849806398560997</v>
+        <v>-3.846835930720043</v>
       </c>
       <c r="G30" t="n">
-        <v>2.159543486766253</v>
+        <v>2.162305897754253</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>2.051106391503652</v>
       </c>
       <c r="E31" t="n">
-        <v>5.18383600059135</v>
+        <v>5.183468068472441</v>
       </c>
       <c r="F31" t="n">
-        <v>-3.745456031479707</v>
+        <v>-3.742435191979617</v>
       </c>
       <c r="G31" t="n">
-        <v>2.077649389347184</v>
+        <v>2.080597226442729</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.912675193832896</v>
       </c>
       <c r="E32" t="n">
-        <v>4.878834874496705</v>
+        <v>4.878215814106159</v>
       </c>
       <c r="F32" t="n">
-        <v>-3.664275897577092</v>
+        <v>-3.661425883703638</v>
       </c>
       <c r="G32" t="n">
-        <v>1.932075294443133</v>
+        <v>1.934691700622041</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.765211105563068</v>
       </c>
       <c r="E33" t="n">
-        <v>4.596295128232599</v>
+        <v>4.596582757706508</v>
       </c>
       <c r="F33" t="n">
-        <v>-3.525503436704538</v>
+        <v>-3.522930101944312</v>
       </c>
       <c r="G33" t="n">
-        <v>1.839430862930703</v>
+        <v>1.842258976082793</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.614059608345882</v>
       </c>
       <c r="E34" t="n">
-        <v>4.264510879958324</v>
+        <v>4.264299172985143</v>
       </c>
       <c r="F34" t="n">
-        <v>-3.408584975656706</v>
+        <v>-3.406750425230479</v>
       </c>
       <c r="G34" t="n">
-        <v>1.71152919011901</v>
+        <v>1.714764656688464</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.46381553069569</v>
       </c>
       <c r="E35" t="n">
-        <v>3.923068413562689</v>
+        <v>3.922612878558325</v>
       </c>
       <c r="F35" t="n">
-        <v>-3.289687419421647</v>
+        <v>-3.288365345875329</v>
       </c>
       <c r="G35" t="n">
-        <v>1.600822503673949</v>
+        <v>1.603647696729857</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>1.31858643400712</v>
       </c>
       <c r="E36" t="n">
-        <v>3.589808056668506</v>
+        <v>3.589278059211506</v>
       </c>
       <c r="F36" t="n">
-        <v>-3.164473695145317</v>
+        <v>-3.163925447087181</v>
       </c>
       <c r="G36" t="n">
-        <v>1.453204341442625</v>
+        <v>1.455903970362715</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>1.18110096352234</v>
       </c>
       <c r="E37" t="n">
-        <v>3.235632510872055</v>
+        <v>3.235863198470419</v>
       </c>
       <c r="F37" t="n">
-        <v>-3.020507843213401</v>
+        <v>-3.020820293504856</v>
       </c>
       <c r="G37" t="n">
-        <v>1.322492076055932</v>
+        <v>1.325346470073659</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>1.052415880550597</v>
       </c>
       <c r="E38" t="n">
-        <v>2.877662300087333</v>
+        <v>2.878227338698515</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.962446840806281</v>
+        <v>-2.963300238915417</v>
       </c>
       <c r="G38" t="n">
-        <v>1.177055225672426</v>
+        <v>1.17971251319788</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.9342184887785687</v>
       </c>
       <c r="E39" t="n">
-        <v>2.531232309413153</v>
+        <v>2.532831062072698</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.823565606350954</v>
+        <v>-2.824455505662363</v>
       </c>
       <c r="G39" t="n">
-        <v>1.076662318941544</v>
+        <v>1.079300625841816</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.8264010250725216</v>
       </c>
       <c r="E40" t="n">
-        <v>2.21386311594042</v>
+        <v>2.215672115525056</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.704999481032532</v>
+        <v>-2.706223001332713</v>
       </c>
       <c r="G40" t="n">
-        <v>0.95605358634394</v>
+        <v>0.9587984767548483</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.7278781776458333</v>
       </c>
       <c r="E41" t="n">
-        <v>1.880808625827055</v>
+        <v>1.882398618198055</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.57591078912293</v>
+        <v>-2.577143799735702</v>
       </c>
       <c r="G41" t="n">
-        <v>0.8345688248917907</v>
+        <v>0.836963303760881</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.6367947202443769</v>
       </c>
       <c r="E42" t="n">
-        <v>1.548802450242963</v>
+        <v>1.549839084387508</v>
       </c>
       <c r="F42" t="n">
-        <v>-2.512559302458401</v>
+        <v>-2.514023000669537</v>
       </c>
       <c r="G42" t="n">
-        <v>0.7189607570055491</v>
+        <v>0.7209829236114577</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.5512418324404312</v>
       </c>
       <c r="E43" t="n">
-        <v>1.283847523185761</v>
+        <v>1.285221428439306</v>
       </c>
       <c r="F43" t="n">
-        <v>-2.432699782054014</v>
+        <v>-2.434057626778559</v>
       </c>
       <c r="G43" t="n">
-        <v>0.6540163578738393</v>
+        <v>0.6565071999169295</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.470572342724742</v>
       </c>
       <c r="E44" t="n">
-        <v>1.017617974145196</v>
+        <v>1.018372819008196</v>
       </c>
       <c r="F44" t="n">
-        <v>-2.31558713461009</v>
+        <v>-2.317785237010954</v>
       </c>
       <c r="G44" t="n">
-        <v>0.5470488545895953</v>
+        <v>0.548987798454322</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.3942034947402859</v>
       </c>
       <c r="E45" t="n">
-        <v>0.8008928156749816</v>
+        <v>0.801030060195527</v>
       </c>
       <c r="F45" t="n">
-        <v>-2.271130860314057</v>
+        <v>-2.273228219396648</v>
       </c>
       <c r="G45" t="n">
-        <v>0.4402185958258967</v>
+        <v>0.4420421958914416</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.3214676878441123</v>
       </c>
       <c r="E46" t="n">
-        <v>0.5667668040573173</v>
+        <v>0.5667098621817718</v>
       </c>
       <c r="F46" t="n">
-        <v>-2.179917275930718</v>
+        <v>-2.182105157994945</v>
       </c>
       <c r="G46" t="n">
-        <v>0.3758538357862776</v>
+        <v>0.377477409263368</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.2522401474250044</v>
       </c>
       <c r="E47" t="n">
-        <v>0.3681608423952796</v>
+        <v>0.3681433218181888</v>
       </c>
       <c r="F47" t="n">
-        <v>-2.093056094906378</v>
+        <v>-2.09470667927315</v>
       </c>
       <c r="G47" t="n">
-        <v>0.2950839753972084</v>
+        <v>0.2961556506959354</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.1864443342543838</v>
       </c>
       <c r="E48" t="n">
-        <v>0.2516037432499473</v>
+        <v>0.2506415715580385</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.987092374684633</v>
+        <v>-1.989130601819542</v>
       </c>
       <c r="G48" t="n">
-        <v>0.2075818332609591</v>
+        <v>0.208047588601959</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.1250214041648128</v>
       </c>
       <c r="E49" t="n">
-        <v>0.1206666304572552</v>
+        <v>0.1208432962762551</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.89099565946125</v>
+        <v>-1.892299482406432</v>
       </c>
       <c r="G49" t="n">
-        <v>0.153739639812519</v>
+        <v>0.1545587267915188</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.06870988411767058</v>
       </c>
       <c r="E50" t="n">
-        <v>0.01530664012110167</v>
+        <v>0.01553878776755615</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.807989735420954</v>
+        <v>-1.80874677035609</v>
       </c>
       <c r="G50" t="n">
-        <v>0.0886755167373547</v>
+        <v>0.0891471122707182</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.01767281758235986</v>
       </c>
       <c r="E51" t="n">
-        <v>-0.07650994412378277</v>
+        <v>-0.07588358349278293</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.679158011975352</v>
+        <v>-1.67950842351717</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03281115668300606</v>
+        <v>0.0326344908640061</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-0.02828226003467849</v>
       </c>
       <c r="E52" t="n">
-        <v>-0.1853010474735717</v>
+        <v>-0.184130088904663</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.560901416852202</v>
+        <v>-1.560426901222657</v>
       </c>
       <c r="G52" t="n">
-        <v>-0.007583993848164913</v>
+        <v>-0.007091957641528681</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-0.0696723473024219</v>
       </c>
       <c r="E53" t="n">
-        <v>-0.3078896052824479</v>
+        <v>-0.3065186201250846</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.446576731237869</v>
+        <v>-1.446210259167051</v>
       </c>
       <c r="G53" t="n">
-        <v>-0.07600330743623745</v>
+        <v>-0.07540468771896489</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-0.1068065078465409</v>
       </c>
       <c r="E54" t="n">
-        <v>-0.3405479609798937</v>
+        <v>-0.3398573582328939</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.374127684918889</v>
+        <v>-1.373946638955616</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.1399826147798566</v>
+        <v>-0.1397358666524931</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-0.1403575585306361</v>
       </c>
       <c r="E55" t="n">
-        <v>-0.4707769504484951</v>
+        <v>-0.4696454131780408</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.3312621330179</v>
+        <v>-1.330885440610446</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.1533668756292167</v>
+        <v>-0.1523901034563988</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-0.1707507511345862</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.5541748974012</v>
+        <v>-0.5526725079156549</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.240547885081652</v>
+        <v>-1.240413560657288</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.2011790704622038</v>
+        <v>-0.2004709471381131</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.1983741082275854</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.6571579294453541</v>
+        <v>-0.6555139152949909</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.200202376185572</v>
+        <v>-1.200057831424572</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.2334110921171043</v>
+        <v>-0.2325438235511045</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.2237918629272771</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.6816838172764385</v>
+        <v>-0.6794806047072572</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.158043487560583</v>
+        <v>-1.157731037269129</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.2684332656737312</v>
+        <v>-0.2675119753283678</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.2471356760834613</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.7739413360447773</v>
+        <v>-0.7719761113144142</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.146104674321223</v>
+        <v>-1.145310408159768</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.3207847500213535</v>
+        <v>-0.3200883070819901</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.2690962016314202</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.8381425706982146</v>
+        <v>-0.8367686654446695</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.103031795591325</v>
+        <v>-1.102376233998507</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.3553659890545261</v>
+        <v>-0.3544665994305263</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.2902879571328006</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.9718596150559969</v>
+        <v>-0.9701601190781791</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.098310000065327</v>
+        <v>-1.096668906011145</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.3977584853740602</v>
+        <v>-0.3972343281094239</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.3111500191525263</v>
       </c>
       <c r="E62" t="n">
-        <v>-1.095480426865145</v>
+        <v>-1.093204211891419</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.097839864580054</v>
+        <v>-1.096214831054872</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.441321940262503</v>
+        <v>-0.440330567608776</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.3317013889785722</v>
       </c>
       <c r="E63" t="n">
-        <v>-1.153015081935494</v>
+        <v>-1.151360847448494</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.136817308414953</v>
+        <v>-1.135120732533317</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.501272974923305</v>
+        <v>-0.5004086264534872</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.3517376626485422</v>
       </c>
       <c r="E64" t="n">
-        <v>-1.249625004062831</v>
+        <v>-1.247259726155559</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.166900139280035</v>
+        <v>-1.164809350413854</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.528010835612116</v>
+        <v>-0.5275888817138434</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.3715249250634747</v>
       </c>
       <c r="E65" t="n">
-        <v>-1.384285239487341</v>
+        <v>-1.381784177107614</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.128392830930409</v>
+        <v>-1.126233419803955</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.553149943641382</v>
+        <v>-0.5525075224813822</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.391133084355537</v>
       </c>
       <c r="E66" t="n">
-        <v>-1.443710656835416</v>
+        <v>-1.441117611425962</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.209774451469569</v>
+        <v>-1.206857275383934</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.6073805098820039</v>
+        <v>-0.6071250014660948</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.4105969062332523</v>
       </c>
       <c r="E67" t="n">
-        <v>-1.542780759995934</v>
+        <v>-1.539981847805663</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.301306326336727</v>
+        <v>-1.298634438330364</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.6501029770700832</v>
+        <v>-0.6503789261592651</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.4297819573864411</v>
       </c>
       <c r="E68" t="n">
-        <v>-1.563517823031111</v>
+        <v>-1.561156925268111</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.372210641775526</v>
+        <v>-1.369708119347708</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.6739368021060769</v>
+        <v>-0.6742331918685314</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.4481532005813208</v>
       </c>
       <c r="E69" t="n">
-        <v>-1.62704743556273</v>
+        <v>-1.625416561845185</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.454497492131049</v>
+        <v>-1.452027090761232</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.6667475253064424</v>
+        <v>-0.6670935567039878</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.4654653942431833</v>
       </c>
       <c r="E70" t="n">
-        <v>-1.681492628872715</v>
+        <v>-1.680140624340534</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.527968572113666</v>
+        <v>-1.525723018149848</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.6926735992567082</v>
+        <v>-0.692996269884799</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.481009593565196</v>
       </c>
       <c r="E71" t="n">
-        <v>-1.717552896621978</v>
+        <v>-1.716021306174615</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.640414175834999</v>
+        <v>-1.638199282881091</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.7362574948184238</v>
+        <v>-0.7363815989061511</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.4943182515039133</v>
       </c>
       <c r="E72" t="n">
-        <v>-1.69621721386953</v>
+        <v>-1.695090056743348</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.734158023559883</v>
+        <v>-1.732551970659884</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.7576764003120544</v>
+        <v>-0.7580837537294179</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.5046332115901021</v>
       </c>
       <c r="E73" t="n">
-        <v>-1.685414318044896</v>
+        <v>-1.685033245493169</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.78626786994846</v>
+        <v>-1.784358857069597</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.7761649892872312</v>
+        <v>-0.7769446549677765</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.5115017148538045</v>
       </c>
       <c r="E74" t="n">
-        <v>-1.636739234790182</v>
+        <v>-1.635996070311909</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.855400417028942</v>
+        <v>-1.854309031080987</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.7752509991823224</v>
+        <v>-0.7761430885658677</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.514504527584038</v>
       </c>
       <c r="E75" t="n">
-        <v>-1.547257267442661</v>
+        <v>-1.546864514506206</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.955272086591369</v>
+        <v>-1.955019498271642</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.7775958364163218</v>
+        <v>-0.7782762188266852</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.5133451230858381</v>
       </c>
       <c r="E76" t="n">
-        <v>-1.428803565827238</v>
+        <v>-1.428994832127147</v>
       </c>
       <c r="F76" t="n">
-        <v>-2.006789153455037</v>
+        <v>-2.006720531194765</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.7632567041155075</v>
+        <v>-0.7642305561921435</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.5076090015480277</v>
       </c>
       <c r="E77" t="n">
-        <v>-1.290277123058002</v>
+        <v>-1.290915164073729</v>
       </c>
       <c r="F77" t="n">
-        <v>-2.058979302488614</v>
+        <v>-2.059002663258068</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.7498549226890565</v>
+        <v>-0.750949958757238</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.4973608878692826</v>
       </c>
       <c r="E78" t="n">
-        <v>-1.102785047463962</v>
+        <v>-1.104167713006052</v>
       </c>
       <c r="F78" t="n">
-        <v>-2.082804367236062</v>
+        <v>-2.083061335700062</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.7231594033948818</v>
+        <v>-0.7239215484983362</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.482835775803708</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.9362023205798247</v>
+        <v>-0.9387150633442786</v>
       </c>
       <c r="F79" t="n">
-        <v>-2.081148672700972</v>
+        <v>-2.081051579502927</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.6681082901271693</v>
+        <v>-0.6688456144130782</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.4641119543825326</v>
       </c>
       <c r="E80" t="n">
-        <v>-0.6960083490963437</v>
+        <v>-0.6983093848876158</v>
       </c>
       <c r="F80" t="n">
-        <v>-2.113265350556691</v>
+        <v>-2.114087357631872</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.6123884748338206</v>
+        <v>-0.6125461600276388</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.4411417555866602</v>
       </c>
       <c r="E81" t="n">
-        <v>-0.4389376817300491</v>
+        <v>-0.4409087466527759</v>
       </c>
       <c r="F81" t="n">
-        <v>-2.113805568350327</v>
+        <v>-2.114830522110144</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.5178489008993915</v>
+        <v>-0.5179876054680279</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.4134835015201513</v>
       </c>
       <c r="E82" t="n">
-        <v>-0.1543261272249437</v>
+        <v>-0.1552079962718526</v>
       </c>
       <c r="F82" t="n">
-        <v>-2.100276762739967</v>
+        <v>-2.101664538450375</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.4498369407286825</v>
+        <v>-0.4498033596225916</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.3811057802711114</v>
       </c>
       <c r="E83" t="n">
-        <v>0.1422213204233403</v>
+        <v>0.1423892259537948</v>
       </c>
       <c r="F83" t="n">
-        <v>-2.040936028181164</v>
+        <v>-2.041626630928164</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.3362495794002585</v>
+        <v>-0.336096274350713</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.3440224681412127</v>
       </c>
       <c r="E84" t="n">
-        <v>0.4819905717067945</v>
+        <v>0.4832053317184306</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.98444457747177</v>
+        <v>-1.984640223915952</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.2555731620890074</v>
+        <v>-0.2552694720860984</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.3029727518949825</v>
       </c>
       <c r="E85" t="n">
-        <v>0.7857710975974402</v>
+        <v>0.7865274025085309</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.911676510644926</v>
+        <v>-1.912245199376335</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.1823765711474816</v>
+        <v>-0.1819925784995726</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.2587866066726635</v>
       </c>
       <c r="E86" t="n">
-        <v>1.102506630198719</v>
+        <v>1.103566625112719</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.864365842331166</v>
+        <v>-1.864830137624075</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.1056145427679568</v>
+        <v>-0.105610162623684</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.2131539228130316</v>
       </c>
       <c r="E87" t="n">
-        <v>1.35136160695747</v>
+        <v>1.351878463981652</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.696718010364711</v>
+        <v>-1.695771899201802</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.05942154126778736</v>
+        <v>-0.05898498688860566</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.1681741736543112</v>
       </c>
       <c r="E88" t="n">
-        <v>1.574271529140774</v>
+        <v>1.575112516841137</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.518908973709577</v>
+        <v>-1.517025511672305</v>
       </c>
       <c r="G88" t="n">
-        <v>0.01008112800373943</v>
+        <v>0.01056002377755749</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-0.1265160275331722</v>
       </c>
       <c r="E89" t="n">
-        <v>1.758145605565543</v>
+        <v>1.758942791823179</v>
       </c>
       <c r="F89" t="n">
-        <v>-1.293925783237183</v>
+        <v>-1.290180759884002</v>
       </c>
       <c r="G89" t="n">
-        <v>0.06507821949208831</v>
+        <v>0.06542279084154276</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-0.0905974245955134</v>
       </c>
       <c r="E90" t="n">
-        <v>1.938335980656949</v>
+        <v>1.939657324179221</v>
       </c>
       <c r="F90" t="n">
-        <v>-1.068005241890426</v>
+        <v>-1.063394410019336</v>
       </c>
       <c r="G90" t="n">
-        <v>0.09744894571562507</v>
+        <v>0.09793514172989766</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-0.0625563863819892</v>
       </c>
       <c r="E91" t="n">
-        <v>2.120383536919991</v>
+        <v>2.122465565497627</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.844758048598122</v>
+        <v>-0.8398975485034869</v>
       </c>
       <c r="G91" t="n">
-        <v>0.08071241444953865</v>
+        <v>0.08080001733499317</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-0.04353516066497234</v>
       </c>
       <c r="E92" t="n">
-        <v>2.237802064438959</v>
+        <v>2.241040451104595</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.6450001089923574</v>
+        <v>-0.6402520326007223</v>
       </c>
       <c r="G92" t="n">
-        <v>0.09357981827471701</v>
+        <v>0.0937112226028988</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-0.03434835148111425</v>
       </c>
       <c r="E93" t="n">
-        <v>2.340967602494477</v>
+        <v>2.344773947867476</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.396337858581606</v>
+        <v>-0.3912641914656982</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04587566700045709</v>
+        <v>0.04577492368218439</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-0.03469626233051294</v>
       </c>
       <c r="E94" t="n">
-        <v>2.362142679956926</v>
+        <v>2.366046848552016</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.2547759758313712</v>
+        <v>-0.2497446501100999</v>
       </c>
       <c r="G94" t="n">
-        <v>0.009911762425194025</v>
+        <v>0.009869421030557674</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.04373488817167046</v>
       </c>
       <c r="E95" t="n">
-        <v>2.319688861617574</v>
+        <v>2.323054272467118</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.08696534850277995</v>
+        <v>-0.08210046826387217</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.02729026293115962</v>
+        <v>-0.02749466966388684</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.06116010476435295</v>
       </c>
       <c r="E96" t="n">
-        <v>2.222061285970873</v>
+        <v>2.225212069751054</v>
       </c>
       <c r="F96" t="n">
-        <v>0.03305060456991508</v>
+        <v>0.03768187711427748</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.06707365331223984</v>
+        <v>-0.06755108903796699</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.08534691196785887</v>
       </c>
       <c r="E97" t="n">
-        <v>2.07152156750964</v>
+        <v>2.074886978359185</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1106302598803488</v>
+        <v>0.1143183413579842</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.1212881590238617</v>
+        <v>-0.1221977689844978</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.1142546221105991</v>
       </c>
       <c r="E98" t="n">
-        <v>1.879590945719237</v>
+        <v>1.882372337332419</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1803840574235119</v>
+        <v>0.1835275409632383</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.1392861718404932</v>
+        <v>-0.1395884017953113</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.1449072962745818</v>
       </c>
       <c r="E99" t="n">
-        <v>1.681256553002109</v>
+        <v>1.684024804182472</v>
       </c>
       <c r="F99" t="n">
-        <v>0.192312650326236</v>
+        <v>0.1956254994445078</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.1351323350218579</v>
+        <v>-0.1352228580034943</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.1750950992559495</v>
       </c>
       <c r="E100" t="n">
-        <v>1.519637989627061</v>
+        <v>1.522524504702788</v>
       </c>
       <c r="F100" t="n">
-        <v>0.2193001792385924</v>
+        <v>0.2218041617145008</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.1291052565025868</v>
+        <v>-0.1292979828505868</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.2014347435692806</v>
       </c>
       <c r="E101" t="n">
-        <v>1.373371831927919</v>
+        <v>1.376944569606372</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2140936477464119</v>
+        <v>0.2161041339675932</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.1107057304609554</v>
+        <v>-0.1107801929135917</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.2221491263632269</v>
       </c>
       <c r="E102" t="n">
-        <v>1.187341264472878</v>
+        <v>1.191236672779422</v>
       </c>
       <c r="F102" t="n">
-        <v>0.2286036056738626</v>
+        <v>0.2309250821384074</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.1430910571654012</v>
+        <v>-0.1431319385119467</v>
       </c>
     </row>
   </sheetData>
